--- a/ig/ch-ig/all-profiles.xlsx
+++ b/ig/ch-ig/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="294">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T08:36:42+00:00</t>
+    <t>2024-08-20T19:08:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -460,111 +460,125 @@
     <t>Often, specific identities are assigned for the agent.</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:$this}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:GLN</t>
+  </si>
+  <si>
+    <t>GLN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-gln-identifier}
+</t>
+  </si>
+  <si>
+    <t>GLN (Global Location Number)</t>
+  </si>
+  <si>
+    <t>See [GLN](http://fhir.ch/ig/ch-term/NamingSystem/gln)</t>
+  </si>
+  <si>
+    <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="urn:oid:2.51.1.3"/&gt;
+&lt;/valueIdentifier&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:ZSR</t>
+  </si>
+  <si>
+    <t>ZSR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-zsr-identifier}
+</t>
+  </si>
+  <si>
+    <t>ZSR (Zahlstellenregister), RCC (Registre des codes-créanciers), RCC (Registro dei codici creditori)</t>
+  </si>
+  <si>
+    <t>The [ZSR/RCC](http://fhir.ch/ig/ch-term/NamingSystem/zsr) number is issued to self-employed, natural or legal persons (organisations) who can and want to work at the expense of health insurance.</t>
+  </si>
+  <si>
+    <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="urn:oid:2.16.756.5.30.1.123.100.2.1.1"/&gt;
+&lt;/valueIdentifier&gt;</t>
+  </si>
+  <si>
+    <t>Practitioner.active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>Whether this practitioner's record is in active use</t>
+  </si>
+  <si>
+    <t>Whether this practitioner's record is in active use.</t>
+  </si>
+  <si>
+    <t>If the practitioner is not in use by one organization, then it should mark the period on the PractitonerRole with an end date (even if they are active) as they may be active in another role.</t>
+  </si>
+  <si>
+    <t>Need to be able to mark a practitioner record as not to be used because it was created in error.</t>
+  </si>
+  <si>
+    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
+  </si>
+  <si>
+    <t>Practitioner.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HumanName {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-humanname}
+</t>
+  </si>
+  <si>
+    <t>Name of a human - parts and usage</t>
+  </si>
+  <si>
+    <t>A human's name with the ability to identify parts and usage.</t>
+  </si>
+  <si>
+    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
+  </si>
+  <si>
+    <t>The name(s) that a Practitioner is known by. Where there are multiple, the name that the practitioner is usually known as should be used in the display.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ch-core-hm-1:if officalName with eCH-011 Extension is specified, it can only be put on a name where use attribute is official {family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='officialName').empty() or (family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='officialName').exists() and use='official')}ch-core-hm-2:if orginalName with eCH-011 Extension is specified, it can only be put on a name where use attribute is maiden {family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='originalName').empty() or ((family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='originalName').exists() and use='maiden'))}ch-core-hm-3:ch-ext-ech-11-name can only be put on a family name {descendants().extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name').count()=family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name').count()}ch-core-hm-4:ch-ext-ech-11-firstname can only be put on a given name {descendants().extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-firstname').count()=given.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-firstname').count()}</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContactPoint
+</t>
+  </si>
+  <si>
+    <t>A contact detail for the practitioner (that apply to all roles)</t>
+  </si>
+  <si>
+    <t>A contact detail for the practitioner, e.g. a telephone number or an email address.</t>
+  </si>
+  <si>
+    <t>Person may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently and to help with identification.  These typically will have home numbers, or mobile numbers that are not role specific.</t>
+  </si>
+  <si>
+    <t>Need to know how to reach a practitioner independent to any roles the practitioner may have.</t>
+  </si>
+  <si>
     <t xml:space="preserve">value:system}
 </t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier:GLN</t>
-  </si>
-  <si>
-    <t>GLN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-gln-identifier}
-</t>
-  </si>
-  <si>
-    <t>GLN (Global Location Number)</t>
-  </si>
-  <si>
-    <t>See [GLN](http://fhir.ch/ig/ch-core/NamingSystem/gln)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier:ZSR</t>
-  </si>
-  <si>
-    <t>ZSR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-zsr-identifier}
-</t>
-  </si>
-  <si>
-    <t>ZSR (Zahlstellenregister), RCC (Registre des codes-créanciers), RCC (Registro dei codici creditori)</t>
-  </si>
-  <si>
-    <t>The [ZSR/RCC](http://fhir.ch/ig/ch-core/NamingSystem/zsr) number is issued to self-employed, natural or legal persons (organisations) who can and want to work at the expense of health insurance.</t>
-  </si>
-  <si>
-    <t>Practitioner.active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>Whether this practitioner's record is in active use</t>
-  </si>
-  <si>
-    <t>Whether this practitioner's record is in active use.</t>
-  </si>
-  <si>
-    <t>If the practitioner is not in use by one organization, then it should mark the period on the PractitonerRole with an end date (even if they are active) as they may be active in another role.</t>
-  </si>
-  <si>
-    <t>Need to be able to mark a practitioner record as not to be used because it was created in error.</t>
-  </si>
-  <si>
-    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
-  </si>
-  <si>
-    <t>Practitioner.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HumanName {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-humanname}
-</t>
-  </si>
-  <si>
-    <t>Name of a human - parts and usage</t>
-  </si>
-  <si>
-    <t>A human's name with the ability to identify parts and usage.</t>
-  </si>
-  <si>
-    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
-  </si>
-  <si>
-    <t>The name(s) that a Practitioner is known by. Where there are multiple, the name that the practitioner is usually known as should be used in the display.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ch-core-hm-1:if officalName with eCH-011 Extension is specified, it can only be put on a name where use attribute is official {family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='officialName').empty() or (family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='officialName').exists() and use='official')}ch-core-hm-2:if orginalName with eCH-011 Extension is specified, it can only be put on a name where use attribute is maiden {family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='originalName').empty() or ((family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='originalName').exists() and use='maiden'))}ch-core-hm-3:ch-ext-ech-11-name can only be put on a family name {descendants().extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name').count()=family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name').count()}ch-core-hm-4:ch-ext-ech-11-firstname can only be put on a given name {descendants().extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-firstname').count()=given.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-firstname').count()}</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ContactPoint
-</t>
-  </si>
-  <si>
-    <t>A contact detail for the practitioner (that apply to all roles)</t>
-  </si>
-  <si>
-    <t>A contact detail for the practitioner, e.g. a telephone number or an email address.</t>
-  </si>
-  <si>
-    <t>Person may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently and to help with identification.  These typically will have home numbers, or mobile numbers that are not role specific.</t>
-  </si>
-  <si>
-    <t>Need to know how to reach a practitioner independent to any roles the practitioner may have.</t>
   </si>
   <si>
     <t>Practitioner.telecom.id</t>
@@ -1273,7 +1287,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.97265625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="56.4375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="9.953125" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="17.65625" customWidth="true" bestFit="true"/>
@@ -2471,7 +2485,7 @@
         <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>76</v>
@@ -2503,7 +2517,7 @@
         <v>76</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="U12" t="s" s="2">
         <v>76</v>
@@ -2551,7 +2565,7 @@
         <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>95</v>
@@ -2562,13 +2576,13 @@
         <v>3</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>138</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E13" t="s" s="2">
         <v>76</v>
@@ -2590,13 +2604,13 @@
         <v>76</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2610,7 +2624,7 @@
         <v>76</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="U13" t="s" s="2">
         <v>76</v>
@@ -2658,7 +2672,7 @@
         <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>95</v>
@@ -2669,10 +2683,10 @@
         <v>3</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2695,70 +2709,70 @@
         <v>84</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M14" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="P14" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Q14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG14" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="P14" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="Q14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R14" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>77</v>
@@ -2778,10 +2792,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -2804,19 +2818,19 @@
         <v>76</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q15" t="s" s="2">
         <v>76</v>
@@ -2865,7 +2879,7 @@
         <v>76</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>77</v>
@@ -2874,10 +2888,10 @@
         <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16">
@@ -2885,10 +2899,10 @@
         <v>3</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -2911,19 +2925,19 @@
         <v>84</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q16" t="s" s="2">
         <v>76</v>
@@ -2960,7 +2974,7 @@
         <v>76</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="AD16" s="2"/>
       <c r="AE16" t="s" s="2">
@@ -2970,7 +2984,7 @@
         <v>144</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>77</v>
@@ -2990,10 +3004,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3016,13 +3030,13 @@
         <v>76</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -3073,7 +3087,7 @@
         <v>76</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>77</v>
@@ -3093,10 +3107,10 @@
         <v>3</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3125,7 +3139,7 @@
         <v>128</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>130</v>
@@ -3166,10 +3180,10 @@
         <v>76</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AE18" t="s" s="2">
         <v>76</v>
@@ -3178,7 +3192,7 @@
         <v>144</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>77</v>
@@ -3198,10 +3212,10 @@
         <v>3</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3227,10 +3241,10 @@
         <v>103</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
@@ -3257,13 +3271,13 @@
         <v>76</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AB19" t="s" s="2">
         <v>76</v>
@@ -3281,7 +3295,7 @@
         <v>76</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>77</v>
@@ -3290,7 +3304,7 @@
         <v>83</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>95</v>
@@ -3301,10 +3315,10 @@
         <v>3</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3327,19 +3341,19 @@
         <v>84</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q20" t="s" s="2">
         <v>76</v>
@@ -3388,7 +3402,7 @@
         <v>76</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>77</v>
@@ -3408,10 +3422,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3437,16 +3451,16 @@
         <v>103</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P21" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q21" t="s" s="2">
         <v>76</v>
@@ -3471,13 +3485,13 @@
         <v>76</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AB21" t="s" s="2">
         <v>76</v>
@@ -3495,7 +3509,7 @@
         <v>76</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>77</v>
@@ -3515,10 +3529,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3541,16 +3555,16 @@
         <v>84</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
@@ -3600,7 +3614,7 @@
         <v>76</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>77</v>
@@ -3620,10 +3634,10 @@
         <v>3</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3646,13 +3660,13 @@
         <v>84</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -3703,7 +3717,7 @@
         <v>76</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>77</v>
@@ -3723,13 +3737,13 @@
         <v>3</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E24" t="s" s="2">
         <v>76</v>
@@ -3751,19 +3765,19 @@
         <v>76</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q24" t="s" s="2">
         <v>76</v>
@@ -3812,7 +3826,7 @@
         <v>76</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>77</v>
@@ -3821,10 +3835,10 @@
         <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25">
@@ -3832,13 +3846,13 @@
         <v>3</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E25" t="s" s="2">
         <v>76</v>
@@ -3860,19 +3874,19 @@
         <v>76</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q25" t="s" s="2">
         <v>76</v>
@@ -3921,7 +3935,7 @@
         <v>76</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>77</v>
@@ -3930,10 +3944,10 @@
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26">
@@ -3941,13 +3955,13 @@
         <v>3</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E26" t="s" s="2">
         <v>76</v>
@@ -3969,19 +3983,19 @@
         <v>76</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P26" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q26" t="s" s="2">
         <v>76</v>
@@ -4030,7 +4044,7 @@
         <v>76</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>77</v>
@@ -4039,10 +4053,10 @@
         <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27">
@@ -4050,10 +4064,10 @@
         <v>3</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4076,19 +4090,19 @@
         <v>76</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="P27" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q27" t="s" s="2">
         <v>76</v>
@@ -4137,7 +4151,7 @@
         <v>76</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>77</v>
@@ -4146,10 +4160,10 @@
         <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28">
@@ -4157,10 +4171,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4186,14 +4200,14 @@
         <v>103</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q28" t="s" s="2">
         <v>76</v>
@@ -4218,13 +4232,13 @@
         <v>76</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AB28" t="s" s="2">
         <v>76</v>
@@ -4242,7 +4256,7 @@
         <v>76</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>77</v>
@@ -4262,10 +4276,10 @@
         <v>3</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4288,17 +4302,17 @@
         <v>84</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q29" t="s" s="2">
         <v>76</v>
@@ -4347,7 +4361,7 @@
         <v>76</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>77</v>
@@ -4367,10 +4381,10 @@
         <v>3</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4393,17 +4407,17 @@
         <v>76</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q30" t="s" s="2">
         <v>76</v>
@@ -4452,7 +4466,7 @@
         <v>76</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>77</v>
@@ -4472,10 +4486,10 @@
         <v>3</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4498,13 +4512,13 @@
         <v>76</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -4555,7 +4569,7 @@
         <v>76</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>77</v>
@@ -4575,10 +4589,10 @@
         <v>3</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4601,13 +4615,13 @@
         <v>76</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -4658,7 +4672,7 @@
         <v>76</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>77</v>
@@ -4678,10 +4692,10 @@
         <v>3</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4710,7 +4724,7 @@
         <v>128</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>130</v>
@@ -4763,7 +4777,7 @@
         <v>76</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>77</v>
@@ -4783,14 +4797,14 @@
         <v>3</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" t="s" s="2">
@@ -4812,10 +4826,10 @@
         <v>127</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>130</v>
@@ -4870,7 +4884,7 @@
         <v>76</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>77</v>
@@ -4890,10 +4904,10 @@
         <v>3</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -4919,14 +4933,14 @@
         <v>139</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q35" t="s" s="2">
         <v>76</v>
@@ -4975,7 +4989,7 @@
         <v>76</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>77</v>
@@ -4995,10 +5009,10 @@
         <v>3</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5021,13 +5035,13 @@
         <v>76</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
@@ -5054,13 +5068,13 @@
         <v>76</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AB36" t="s" s="2">
         <v>76</v>
@@ -5078,7 +5092,7 @@
         <v>76</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>83</v>
@@ -5098,10 +5112,10 @@
         <v>3</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5124,17 +5138,17 @@
         <v>76</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q37" t="s" s="2">
         <v>76</v>
@@ -5183,7 +5197,7 @@
         <v>76</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>77</v>
@@ -5203,10 +5217,10 @@
         <v>3</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5229,13 +5243,13 @@
         <v>76</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
@@ -5286,7 +5300,7 @@
         <v>76</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>77</v>
@@ -5306,10 +5320,10 @@
         <v>3</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5332,19 +5346,19 @@
         <v>76</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="P39" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q39" t="s" s="2">
         <v>76</v>
@@ -5393,7 +5407,7 @@
         <v>76</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>77</v>

--- a/ig/ch-ig/all-profiles.xlsx
+++ b/ig/ch-ig/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T19:08:12+00:00</t>
+    <t>2024-08-21T06:25:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-ig/all-profiles.xlsx
+++ b/ig/ch-ig/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.1</t>
+    <t>1.2.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-21T06:25:21+00:00</t>
+    <t>2025-05-21T09:54:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -460,7 +460,7 @@
     <t>Often, specific identities are assigned for the agent.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
@@ -1268,17 +1268,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.8828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.70703125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="40.70703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="39.9140625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="14.47265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.8984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="34.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="34.21875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="12.3828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1287,21 +1287,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="56.4375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.06640625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="51.921875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="17.21484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="10.5546875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="48.38671875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="49.78125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="44.51171875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.7578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.046875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>
